--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318894.2909555868</v>
+        <v>317006.7094391847</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>61.83536351892976</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>46.00903718674009</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.80998328326091</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>28.36453312829721</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>19.330028281558</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7632886126195</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>184.4204837359412</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>5.511247540012855</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>134.9198292231115</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
     </row>
     <row r="11">
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.29718497126813</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.009426387533788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>232.1241909910387</v>
+        <v>94.16481274941252</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67.54481623479286</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>29.18937547121048</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>105.657132943749</v>
       </c>
       <c r="E22" t="n">
-        <v>76.26707429362997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>176.7412772566566</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.90445977359207</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>161.4792425186661</v>
+        <v>127.7178027211458</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>42.2056982312553</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>110.8099768231943</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593971</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789442</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789546</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.083041312479</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.120524372067</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>680.8548257653165</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>680.8548257653165</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>269.8689209757089</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.6828813766</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>479.6890627586768</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.863380426349</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.800493082778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2118.800493082778</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X5" t="n">
-        <v>1745.334734821698</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y5" t="n">
-        <v>1745.334734821698</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.05843098304948</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>804.6781795198735</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>393.692274730266</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2460.375997155802</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.375997155802</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2460.375997155802</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.373659475813</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.668234180871</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150545</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170372</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831648</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5367,16 +5367,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028218</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C16" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,13 +5434,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>953.452277246352</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X16" t="n">
-        <v>953.452277246352</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.6596981028218</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>484.0375086983732</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="C19" t="n">
-        <v>484.0375086983732</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>644.108030042951</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>354.6908600059904</v>
       </c>
       <c r="X19" t="n">
-        <v>665.685973528613</v>
+        <v>126.701309107973</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.685973528613</v>
+        <v>97.21709146028567</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.672548693787</v>
+        <v>203.9414681711435</v>
       </c>
       <c r="C22" t="n">
-        <v>324.672548693787</v>
+        <v>203.9414681711435</v>
       </c>
       <c r="D22" t="n">
-        <v>324.672548693787</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655742</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="X22" t="n">
-        <v>727.1135926675569</v>
+        <v>385.5899330013832</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.3210135240267</v>
+        <v>385.5899330013832</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1320.389727874411</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>1031.261089087969</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1031.261089087969</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>741.8439190510086</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>741.8439190510086</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.8439190510086</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>933.236668829393</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W28" t="n">
-        <v>770.1263228509424</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>542.1367719529251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248444</v>
+        <v>439.532429954219</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783084</v>
+        <v>326.3571123076829</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473433</v>
+        <v>232.001338176718</v>
       </c>
       <c r="E31" t="n">
-        <v>395.417773246321</v>
+        <v>139.8491098756952</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1824.196793537696</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1824.196793537696</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032625</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108109</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352519</v>
+        <v>902.6804289818934</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358727</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737134</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,13 +6859,13 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045199</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,25 +6956,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103119</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7339,16 +7339,16 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>8.406710013102099</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>8.406710013101304</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>277.6717966208062</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>113.6026921294544</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>277.6717966208062</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>85.66716743252466</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.575226964561</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>54.39880734555233</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>81.07065678341949</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>189.3952778808843</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.95834007446331</v>
       </c>
       <c r="E22" t="n">
-        <v>70.1668883529392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.80628380173269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.2331835502359</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>125.0437558179249</v>
+        <v>158.8051956154452</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311881</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>31.90757653185187</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1070036.337222677</v>
+        <v>1070036.337222678</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="C2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="C2" t="n">
-        <v>328416.7079457133</v>
-      </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.2477901669</v>
+        <v>312823.247790167</v>
       </c>
       <c r="G2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="H2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="I2" t="n">
         <v>312823.247790167</v>
       </c>
-      <c r="I2" t="n">
-        <v>312823.2477901671</v>
-      </c>
       <c r="J2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762159</v>
+        <v>325457.7098762158</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457136</v>
       </c>
       <c r="M2" t="n">
+        <v>328416.7079457131</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457132</v>
       </c>
-      <c r="N2" t="n">
-        <v>328416.7079457135</v>
-      </c>
       <c r="O2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="P2" t="n">
         <v>328416.7079457136</v>
-      </c>
-      <c r="P2" t="n">
-        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284586</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275956</v>
-      </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275958</v>
@@ -26485,25 +26485,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-501185.2075834632</v>
       </c>
       <c r="C6" t="n">
-        <v>88782.67163108123</v>
+        <v>88782.67163108129</v>
       </c>
       <c r="D6" t="n">
-        <v>88782.6716310812</v>
+        <v>88782.67163108129</v>
       </c>
       <c r="E6" t="n">
-        <v>-319369.7842568849</v>
+        <v>-319467.2433828571</v>
       </c>
       <c r="F6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="G6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.793094039</v>
       </c>
       <c r="H6" t="n">
-        <v>205790.2522200112</v>
+        <v>205692.793094039</v>
       </c>
       <c r="I6" t="n">
-        <v>205790.2522200114</v>
+        <v>205692.793094039</v>
       </c>
       <c r="J6" t="n">
-        <v>29367.03302741831</v>
+        <v>29269.57390144616</v>
       </c>
       <c r="K6" t="n">
-        <v>151456.6039075118</v>
+        <v>151438.1101695773</v>
       </c>
       <c r="L6" t="n">
-        <v>182894.2384620616</v>
+        <v>182894.2384620619</v>
       </c>
       <c r="M6" t="n">
-        <v>58436.130029091</v>
+        <v>58436.13002909094</v>
       </c>
       <c r="N6" t="n">
-        <v>193237.1452629285</v>
+        <v>193237.1452629282</v>
       </c>
       <c r="O6" t="n">
-        <v>193237.1452629286</v>
+        <v>193237.1452629283</v>
       </c>
       <c r="P6" t="n">
-        <v>149074.5399600829</v>
+        <v>149074.5399600827</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26975,11 +26975,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>351.9488065018652</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>323.7220634917289</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>218.3276600405671</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>222.8596343799921</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>329.910940435855</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.8276855108791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.3743547112085</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.3636862848538</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>210.9370728176449</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>11.51413342345762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>49.80904827649567</v>
       </c>
     </row>
     <row r="11">
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,13 +35498,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>290.7704122542102</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>96.41974279817546</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>560.0354988619143</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>560.0354988619143</v>
+        <v>462.3874039146948</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
